--- a/SchedulingData/static8/pso/scheduling1_7.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_7.xlsx
@@ -462,230 +462,230 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.5</v>
+        <v>63.74</v>
       </c>
       <c r="E2" t="n">
-        <v>25.62</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>129.26</v>
+        <v>97.38</v>
       </c>
       <c r="E3" t="n">
-        <v>22.344</v>
+        <v>25.912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>63.74</v>
       </c>
       <c r="D4" t="n">
-        <v>64.90000000000001</v>
+        <v>130.14</v>
       </c>
       <c r="E4" t="n">
-        <v>26.2</v>
+        <v>23.276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.90000000000001</v>
+        <v>130.14</v>
       </c>
       <c r="D5" t="n">
-        <v>134.84</v>
+        <v>191.58</v>
       </c>
       <c r="E5" t="n">
-        <v>23.296</v>
+        <v>19.272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>104.7</v>
+        <v>42.88</v>
       </c>
       <c r="E6" t="n">
-        <v>26.16</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>97.38</v>
       </c>
       <c r="D7" t="n">
-        <v>77.09999999999999</v>
+        <v>157.26</v>
       </c>
       <c r="E7" t="n">
-        <v>26.44</v>
+        <v>21.544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>65.95999999999999</v>
+        <v>40.08</v>
       </c>
       <c r="E8" t="n">
-        <v>26.064</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>42.88</v>
       </c>
       <c r="D9" t="n">
-        <v>49.98</v>
+        <v>99.88</v>
       </c>
       <c r="E9" t="n">
-        <v>26.192</v>
+        <v>22.332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>104.7</v>
+        <v>157.26</v>
       </c>
       <c r="D10" t="n">
-        <v>190.8</v>
+        <v>203.7</v>
       </c>
       <c r="E10" t="n">
-        <v>20.64</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>190.8</v>
+        <v>99.88</v>
       </c>
       <c r="D11" t="n">
-        <v>241.42</v>
+        <v>161.48</v>
       </c>
       <c r="E11" t="n">
-        <v>17.208</v>
+        <v>16.812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>129.26</v>
+        <v>191.58</v>
       </c>
       <c r="D12" t="n">
-        <v>183.52</v>
+        <v>256.9</v>
       </c>
       <c r="E12" t="n">
-        <v>18.548</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.98</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>105.8</v>
+        <v>68.88</v>
       </c>
       <c r="E13" t="n">
-        <v>22.24</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="14">
@@ -694,117 +694,117 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>77.09999999999999</v>
+        <v>40.08</v>
       </c>
       <c r="D14" t="n">
-        <v>126.34</v>
+        <v>95.5</v>
       </c>
       <c r="E14" t="n">
-        <v>22.656</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>126.34</v>
+        <v>68.88</v>
       </c>
       <c r="D15" t="n">
-        <v>188.02</v>
+        <v>145.32</v>
       </c>
       <c r="E15" t="n">
-        <v>18.608</v>
+        <v>21.708</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>241.42</v>
+        <v>256.9</v>
       </c>
       <c r="D16" t="n">
-        <v>302.52</v>
+        <v>306.38</v>
       </c>
       <c r="E16" t="n">
-        <v>12.228</v>
+        <v>12.032</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>65.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>114.4</v>
+        <v>48.42</v>
       </c>
       <c r="E17" t="n">
-        <v>23.36</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>114.4</v>
+        <v>203.7</v>
       </c>
       <c r="D18" t="n">
-        <v>165.06</v>
+        <v>245.5</v>
       </c>
       <c r="E18" t="n">
-        <v>19.424</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>302.52</v>
+        <v>145.32</v>
       </c>
       <c r="D19" t="n">
-        <v>347.28</v>
+        <v>186.92</v>
       </c>
       <c r="E19" t="n">
-        <v>9.372</v>
+        <v>18.188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -812,127 +812,127 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>183.52</v>
+        <v>161.48</v>
       </c>
       <c r="D20" t="n">
-        <v>218.96</v>
+        <v>231.52</v>
       </c>
       <c r="E20" t="n">
-        <v>15.644</v>
+        <v>13.908</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>105.8</v>
+        <v>48.42</v>
       </c>
       <c r="D21" t="n">
-        <v>180.9</v>
+        <v>122.32</v>
       </c>
       <c r="E21" t="n">
-        <v>17.82</v>
+        <v>23.048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>188.02</v>
+        <v>306.38</v>
       </c>
       <c r="D22" t="n">
-        <v>272.72</v>
+        <v>381.08</v>
       </c>
       <c r="E22" t="n">
-        <v>14.708</v>
+        <v>6.692</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>180.9</v>
+        <v>186.92</v>
       </c>
       <c r="D23" t="n">
-        <v>238.68</v>
+        <v>258.3</v>
       </c>
       <c r="E23" t="n">
-        <v>13.172</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>238.68</v>
+        <v>95.5</v>
       </c>
       <c r="D24" t="n">
-        <v>305.86</v>
+        <v>146.44</v>
       </c>
       <c r="E24" t="n">
-        <v>9.084</v>
+        <v>20.796</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>165.06</v>
+        <v>231.52</v>
       </c>
       <c r="D25" t="n">
-        <v>211.5</v>
+        <v>318.62</v>
       </c>
       <c r="E25" t="n">
-        <v>15.42</v>
+        <v>8.308</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>305.86</v>
+        <v>258.3</v>
       </c>
       <c r="D26" t="n">
-        <v>365.74</v>
+        <v>307.56</v>
       </c>
       <c r="E26" t="n">
-        <v>4.716</v>
+        <v>10.344</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>134.84</v>
+        <v>318.62</v>
       </c>
       <c r="D27" t="n">
-        <v>226.64</v>
+        <v>372.82</v>
       </c>
       <c r="E27" t="n">
-        <v>19.216</v>
+        <v>4.508</v>
       </c>
     </row>
     <row r="28">
@@ -960,55 +960,55 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>365.74</v>
+        <v>245.5</v>
       </c>
       <c r="D28" t="n">
-        <v>422.24</v>
+        <v>295.92</v>
       </c>
       <c r="E28" t="n">
-        <v>1.196</v>
+        <v>12.068</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>422.24</v>
+        <v>146.44</v>
       </c>
       <c r="D29" t="n">
-        <v>496.65</v>
+        <v>222</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>347.28</v>
+        <v>222</v>
       </c>
       <c r="D30" t="n">
-        <v>417.38</v>
+        <v>271.94</v>
       </c>
       <c r="E30" t="n">
-        <v>5.452</v>
+        <v>12.996</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>496.65</v>
+        <v>295.92</v>
       </c>
       <c r="D31" t="n">
-        <v>568.35</v>
+        <v>361.12</v>
       </c>
       <c r="E31" t="n">
-        <v>25.98</v>
+        <v>8.167999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>226.64</v>
+        <v>361.12</v>
       </c>
       <c r="D32" t="n">
-        <v>272.76</v>
+        <v>446.38</v>
       </c>
       <c r="E32" t="n">
-        <v>16.224</v>
+        <v>4.232</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>211.5</v>
+        <v>372.82</v>
       </c>
       <c r="D33" t="n">
-        <v>292.5</v>
+        <v>457.02</v>
       </c>
       <c r="E33" t="n">
-        <v>11.94</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="34">
@@ -1074,630 +1074,630 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>272.76</v>
+        <v>457.02</v>
       </c>
       <c r="D34" t="n">
-        <v>322.18</v>
+        <v>561.98</v>
       </c>
       <c r="E34" t="n">
-        <v>13.392</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>218.96</v>
+        <v>561.98</v>
       </c>
       <c r="D35" t="n">
-        <v>295.1</v>
+        <v>601.08</v>
       </c>
       <c r="E35" t="n">
-        <v>11.64</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>295.1</v>
+        <v>271.94</v>
       </c>
       <c r="D36" t="n">
-        <v>363.4</v>
+        <v>322.4</v>
       </c>
       <c r="E36" t="n">
-        <v>7.44</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>568.35</v>
+        <v>322.4</v>
       </c>
       <c r="D37" t="n">
-        <v>634.09</v>
+        <v>380.04</v>
       </c>
       <c r="E37" t="n">
-        <v>23.016</v>
+        <v>4.936</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>272.72</v>
+        <v>122.32</v>
       </c>
       <c r="D38" t="n">
-        <v>349.82</v>
+        <v>171.46</v>
       </c>
       <c r="E38" t="n">
-        <v>9.108000000000001</v>
+        <v>19.264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>363.4</v>
+        <v>380.04</v>
       </c>
       <c r="D39" t="n">
-        <v>443.76</v>
+        <v>451.74</v>
       </c>
       <c r="E39" t="n">
-        <v>3.524</v>
+        <v>1.376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>292.5</v>
+        <v>451.74</v>
       </c>
       <c r="D40" t="n">
-        <v>331.98</v>
+        <v>540.49</v>
       </c>
       <c r="E40" t="n">
-        <v>9.132</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>349.82</v>
+        <v>307.56</v>
       </c>
       <c r="D41" t="n">
-        <v>399.24</v>
+        <v>370.24</v>
       </c>
       <c r="E41" t="n">
-        <v>5.796</v>
+        <v>5.696</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>443.76</v>
+        <v>540.49</v>
       </c>
       <c r="D42" t="n">
-        <v>519.1799999999999</v>
+        <v>577.13</v>
       </c>
       <c r="E42" t="n">
-        <v>0.092</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>519.1799999999999</v>
+        <v>171.46</v>
       </c>
       <c r="D43" t="n">
-        <v>590.9</v>
+        <v>223.56</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>15.184</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>399.24</v>
+        <v>370.24</v>
       </c>
       <c r="D44" t="n">
-        <v>464.96</v>
+        <v>425.34</v>
       </c>
       <c r="E44" t="n">
-        <v>2.364</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>322.18</v>
+        <v>425.34</v>
       </c>
       <c r="D45" t="n">
-        <v>384.08</v>
+        <v>504.41</v>
       </c>
       <c r="E45" t="n">
-        <v>9.311999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>331.98</v>
+        <v>446.38</v>
       </c>
       <c r="D46" t="n">
-        <v>400.02</v>
+        <v>498.98</v>
       </c>
       <c r="E46" t="n">
-        <v>6.428</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>400.02</v>
+        <v>498.98</v>
       </c>
       <c r="D47" t="n">
-        <v>445.76</v>
+        <v>589.5</v>
       </c>
       <c r="E47" t="n">
-        <v>3.964</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>464.96</v>
+        <v>601.08</v>
       </c>
       <c r="D48" t="n">
-        <v>556.83</v>
+        <v>651.6799999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>556.83</v>
+        <v>589.5</v>
       </c>
       <c r="D49" t="n">
-        <v>624.9299999999999</v>
+        <v>660.42</v>
       </c>
       <c r="E49" t="n">
-        <v>26.36</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>417.38</v>
+        <v>381.08</v>
       </c>
       <c r="D50" t="n">
-        <v>464.56</v>
+        <v>449.38</v>
       </c>
       <c r="E50" t="n">
-        <v>1.864</v>
+        <v>2.492</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>464.56</v>
+        <v>577.13</v>
       </c>
       <c r="D51" t="n">
-        <v>532.83</v>
+        <v>623.05</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>23.584</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>624.9299999999999</v>
+        <v>504.41</v>
       </c>
       <c r="D52" t="n">
-        <v>707.67</v>
+        <v>591.51</v>
       </c>
       <c r="E52" t="n">
-        <v>22.216</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>532.83</v>
+        <v>449.38</v>
       </c>
       <c r="D53" t="n">
-        <v>570.33</v>
+        <v>526.3</v>
       </c>
       <c r="E53" t="n">
-        <v>27.44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>570.33</v>
+        <v>526.3</v>
       </c>
       <c r="D54" t="n">
-        <v>638.71</v>
+        <v>611</v>
       </c>
       <c r="E54" t="n">
-        <v>24.192</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>384.08</v>
+        <v>611</v>
       </c>
       <c r="D55" t="n">
-        <v>428.48</v>
+        <v>689.5</v>
       </c>
       <c r="E55" t="n">
-        <v>6.012</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>707.67</v>
+        <v>591.51</v>
       </c>
       <c r="D56" t="n">
-        <v>761.95</v>
+        <v>639.65</v>
       </c>
       <c r="E56" t="n">
-        <v>19.408</v>
+        <v>23.216</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>428.48</v>
+        <v>623.05</v>
       </c>
       <c r="D57" t="n">
-        <v>490.58</v>
+        <v>698.15</v>
       </c>
       <c r="E57" t="n">
-        <v>1.932</v>
+        <v>19.164</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>490.58</v>
+        <v>639.65</v>
       </c>
       <c r="D58" t="n">
-        <v>593.02</v>
+        <v>711.09</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>20.192</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>593.02</v>
+        <v>689.5</v>
       </c>
       <c r="D59" t="n">
-        <v>632.12</v>
+        <v>780.3</v>
       </c>
       <c r="E59" t="n">
-        <v>27.28</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>445.76</v>
+        <v>698.15</v>
       </c>
       <c r="D60" t="n">
-        <v>489.96</v>
+        <v>761.25</v>
       </c>
       <c r="E60" t="n">
-        <v>0.184</v>
+        <v>14.964</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>489.96</v>
+        <v>223.56</v>
       </c>
       <c r="D61" t="n">
-        <v>571.59</v>
+        <v>285.86</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>11.584</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>761.95</v>
+        <v>711.09</v>
       </c>
       <c r="D62" t="n">
-        <v>812.27</v>
+        <v>760.41</v>
       </c>
       <c r="E62" t="n">
-        <v>16.496</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>590.9</v>
+        <v>285.86</v>
       </c>
       <c r="D63" t="n">
-        <v>644.3200000000001</v>
+        <v>347.06</v>
       </c>
       <c r="E63" t="n">
-        <v>26.348</v>
+        <v>8.103999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>644.3200000000001</v>
+        <v>761.25</v>
       </c>
       <c r="D64" t="n">
-        <v>717.72</v>
+        <v>825.87</v>
       </c>
       <c r="E64" t="n">
-        <v>22.148</v>
+        <v>12.132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>638.71</v>
+        <v>760.41</v>
       </c>
       <c r="D65" t="n">
-        <v>688.41</v>
+        <v>809.59</v>
       </c>
       <c r="E65" t="n">
-        <v>21.352</v>
+        <v>14.072</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>632.12</v>
+        <v>780.3</v>
       </c>
       <c r="D66" t="n">
-        <v>708.92</v>
+        <v>834.16</v>
       </c>
       <c r="E66" t="n">
-        <v>23.68</v>
+        <v>15.124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1705,89 +1705,89 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>708.92</v>
+        <v>347.06</v>
       </c>
       <c r="D67" t="n">
-        <v>765.54</v>
+        <v>423.68</v>
       </c>
       <c r="E67" t="n">
-        <v>20.128</v>
+        <v>4.552</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>571.59</v>
+        <v>423.68</v>
       </c>
       <c r="D68" t="n">
-        <v>638.83</v>
+        <v>473.92</v>
       </c>
       <c r="E68" t="n">
-        <v>24.956</v>
+        <v>1.648</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>634.09</v>
+        <v>473.92</v>
       </c>
       <c r="D69" t="n">
-        <v>713.6900000000001</v>
+        <v>577.02</v>
       </c>
       <c r="E69" t="n">
-        <v>17.676</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>638.83</v>
+        <v>809.59</v>
       </c>
       <c r="D70" t="n">
-        <v>705.0700000000001</v>
+        <v>849.45</v>
       </c>
       <c r="E70" t="n">
-        <v>21.932</v>
+        <v>11.216</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>812.27</v>
+        <v>651.6799999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>887.01</v>
+        <v>692.9</v>
       </c>
       <c r="E71" t="n">
-        <v>12.632</v>
+        <v>20.368</v>
       </c>
     </row>
   </sheetData>
